--- a/storage/app/public/template_upload/Format_Upload_Penduduk.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Penduduk.xlsx
@@ -13,14 +13,14 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PENDUDUK!$A$1:$S$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PENDUDUK!$A$1:$N$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>nik</t>
   </si>
@@ -64,21 +64,6 @@
     <t>alamat_sekarang</t>
   </si>
   <si>
-    <t>desa_id</t>
-  </si>
-  <si>
-    <t>kecamatan_id</t>
-  </si>
-  <si>
-    <t>kabupaten_id</t>
-  </si>
-  <si>
-    <t>provinsi_id</t>
-  </si>
-  <si>
-    <t>status_dasar</t>
-  </si>
-  <si>
     <t>1105073112520015</t>
   </si>
   <si>
@@ -95,13 +80,16 @@
   </si>
   <si>
     <t>1965-07-02</t>
+  </si>
+  <si>
+    <t>no_kk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,12 +97,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,9 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,14 +483,9 @@
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,24 +529,12 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
       </c>
       <c r="B2" t="str">
         <f>UPPER([1]Sheet1!B2)</f>
@@ -585,7 +549,7 @@
         <v>COT SUKON</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <f>IF([1]Sheet1!F2="A",1,IF([1]Sheet1!F2="B",2,IF([1]Sheet1!F2="AB",3,IF([1]Sheet1!F2="O",4,IF([1]Sheet1!F2="A+",5,IF([1]Sheet1!F2="A-",6,IF([1]Sheet1!F2="B+",7,IF([1]Sheet1!F2="B-",8,IF([1]Sheet1!F2="AB+",9,IF([1]Sheet1!F2="AB-",10,IF([1]Sheet1!F2="O+",11,IF([1]Sheet1!F2="O-",12,13))))))))))))</f>
@@ -607,33 +571,18 @@
         <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2">
-        <v>1107062011</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1107062</v>
-      </c>
-      <c r="Q2">
-        <v>1107</v>
-      </c>
-      <c r="R2">
-        <v>11</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" t="str">
         <f>UPPER([1]Sheet1!B3)</f>
@@ -648,7 +597,7 @@
         <v>TANGKEH</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <f>IF([1]Sheet1!F3="A",1,IF([1]Sheet1!F3="B",2,IF([1]Sheet1!F3="AB",3,IF([1]Sheet1!F3="O",4,IF([1]Sheet1!F3="A+",5,IF([1]Sheet1!F3="A-",6,IF([1]Sheet1!F3="B+",7,IF([1]Sheet1!F3="B-",8,IF([1]Sheet1!F3="AB+",9,IF([1]Sheet1!F3="AB-",10,IF([1]Sheet1!F3="O+",11,IF([1]Sheet1!F3="O-",12,13))))))))))))</f>
@@ -670,36 +619,22 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3">
-        <v>1107062011</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1107062</v>
-      </c>
-      <c r="Q3">
-        <v>1107</v>
-      </c>
-      <c r="R3">
-        <v>11</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S3">
+  <autoFilter ref="A1:N3">
     <filterColumn colId="7"/>
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/app/public/template_upload/Format_Upload_Penduduk.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Penduduk.xlsx
@@ -4,31 +4,40 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="17235" windowHeight="5970"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PENDUDUK" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PENDUDUK!$A$1:$N$3</definedName>
-  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>nik</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>dusun</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>rt</t>
   </si>
   <si>
     <t>nama</t>
   </si>
   <si>
-    <t>sex</t>
+    <t>nomor_kk</t>
+  </si>
+  <si>
+    <t>nomor_nik</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
   </si>
   <si>
     <t>tempat_lahir</t>
@@ -37,65 +46,303 @@
     <t>tanggal_lahir</t>
   </si>
   <si>
-    <t>golongan_darah_id</t>
-  </si>
-  <si>
-    <t>agama_id</t>
-  </si>
-  <si>
-    <t>status_kawin</t>
-  </si>
-  <si>
-    <t>kk_level</t>
-  </si>
-  <si>
-    <t>pendidikan_kk_id</t>
-  </si>
-  <si>
-    <t>pekerjaan_id</t>
+    <t>agama</t>
+  </si>
+  <si>
+    <t>pendidikan_dlm_kk</t>
+  </si>
+  <si>
+    <t>pendidikan_sdg_ditempuh</t>
+  </si>
+  <si>
+    <t>pekerjaan</t>
+  </si>
+  <si>
+    <t>kawin</t>
+  </si>
+  <si>
+    <t>hubungan_keluarga</t>
+  </si>
+  <si>
+    <t>kewarganegaraan</t>
+  </si>
+  <si>
+    <t>nama_ayah</t>
   </si>
   <si>
     <t>nama_ibu</t>
   </si>
   <si>
-    <t>nama_ayah</t>
-  </si>
-  <si>
-    <t>alamat_sekarang</t>
-  </si>
-  <si>
-    <t>1105073112520015</t>
-  </si>
-  <si>
-    <t>1952-12-31</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Kubu</t>
-  </si>
-  <si>
-    <t>1105074207650004</t>
-  </si>
-  <si>
-    <t>1965-07-02</t>
-  </si>
-  <si>
-    <t>no_kk</t>
+    <t>gol_darah</t>
+  </si>
+  <si>
+    <t>akta_lahir</t>
+  </si>
+  <si>
+    <t>nomor_dokumen_pasport</t>
+  </si>
+  <si>
+    <t>tanggal_akhir_pasport</t>
+  </si>
+  <si>
+    <t>nomor_dokumen_kitas</t>
+  </si>
+  <si>
+    <t>nik_ayah</t>
+  </si>
+  <si>
+    <t>nik_ibu</t>
+  </si>
+  <si>
+    <t>nomor_akta_perkawinan</t>
+  </si>
+  <si>
+    <t>tanggal_perkawinan</t>
+  </si>
+  <si>
+    <t>nomor_akta_perceraian</t>
+  </si>
+  <si>
+    <t>tanggal_perceraian</t>
+  </si>
+  <si>
+    <t>cacat</t>
+  </si>
+  <si>
+    <t>cara_kb</t>
+  </si>
+  <si>
+    <t>hamil</t>
+  </si>
+  <si>
+    <t>PERTEMUAN-AIK LOMAK</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>AMAQ ROKYAH</t>
+  </si>
+  <si>
+    <t>5203090102100044</t>
+  </si>
+  <si>
+    <t>5203090107630229</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Aik Lomak</t>
+  </si>
+  <si>
+    <t>1963-07-01</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AMAQ AMISAH</t>
+  </si>
+  <si>
+    <t>INAQ AMISAH</t>
+  </si>
+  <si>
+    <t>INAQ ROKYAH</t>
+  </si>
+  <si>
+    <t>5203094107650622</t>
+  </si>
+  <si>
+    <t>1965-07-01</t>
+  </si>
+  <si>
+    <t>AMAQ PIYAH</t>
+  </si>
+  <si>
+    <t>INAQ PIYAH</t>
+  </si>
+  <si>
+    <t>DASAN TOYA LAUQ</t>
+  </si>
+  <si>
+    <t>INAQ BADARIYAH</t>
+  </si>
+  <si>
+    <t>5203090102120023</t>
+  </si>
+  <si>
+    <t>5203094107640443</t>
+  </si>
+  <si>
+    <t>Rempung</t>
+  </si>
+  <si>
+    <t>1964-07-01</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>HAJI BAHRUDIN</t>
+  </si>
+  <si>
+    <t>INAQ DURRAHMAN</t>
+  </si>
+  <si>
+    <t>MAMIQ RASIP</t>
+  </si>
+  <si>
+    <t>5203091212550006</t>
+  </si>
+  <si>
+    <t>Ampenan</t>
+  </si>
+  <si>
+    <t>1955-12-12</t>
+  </si>
+  <si>
+    <t>MAMIQ TAWANG</t>
+  </si>
+  <si>
+    <t>PATIMAH</t>
+  </si>
+  <si>
+    <t>TOYA DAYA</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MAUIZZATUL HASANAH</t>
+  </si>
+  <si>
+    <t>5203090102120041</t>
+  </si>
+  <si>
+    <t>5203095205090002</t>
+  </si>
+  <si>
+    <t>Dasan Toya</t>
+  </si>
+  <si>
+    <t>2009-05-12</t>
+  </si>
+  <si>
+    <t>HAERUDIN</t>
+  </si>
+  <si>
+    <t>HIDANAH</t>
+  </si>
+  <si>
+    <t>5203097012840012</t>
+  </si>
+  <si>
+    <t>1984-12-30</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>AMAQ MUSLIHUN</t>
+  </si>
+  <si>
+    <t>INAQ SAIMIN</t>
+  </si>
+  <si>
+    <t>ZAKIYA AULIA</t>
+  </si>
+  <si>
+    <t>5203096712120005</t>
+  </si>
+  <si>
+    <t>2012-12-27</t>
+  </si>
+  <si>
+    <t>ANAN</t>
+  </si>
+  <si>
+    <t>TOYA LAUQ</t>
+  </si>
+  <si>
+    <t>RIALAM</t>
+  </si>
+  <si>
+    <t>5203090102130009</t>
+  </si>
+  <si>
+    <t>5203094107601137</t>
+  </si>
+  <si>
+    <t>1960-07-01</t>
+  </si>
+  <si>
+    <t>DULISAH</t>
+  </si>
+  <si>
+    <t>SUNDUSIAH</t>
+  </si>
+  <si>
+    <t>KUANG GORONG DUSUN PENEDA</t>
+  </si>
+  <si>
+    <t>KUANG GORONG PENEDA</t>
+  </si>
+  <si>
+    <t>SINAREP</t>
+  </si>
+  <si>
+    <t>5203090102130011</t>
+  </si>
+  <si>
+    <t>5203090705650001</t>
+  </si>
+  <si>
+    <t>Peneda</t>
+  </si>
+  <si>
+    <t>1965-05-07</t>
+  </si>
+  <si>
+    <t>SAHIR</t>
+  </si>
+  <si>
+    <t>INAQ SAHIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,12 +362,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,52 +409,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>M. Saleh. SA</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>L</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Cot Sukon</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Halimah</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Tangkeh</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,180 +696,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33" ht="15.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="str">
-        <f>UPPER([1]Sheet1!B2)</f>
-        <v>M. SALEH. SA</v>
-      </c>
-      <c r="C2">
-        <f>IF([1]Sheet1!C2="L",1,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <f>UPPER([1]Sheet1!D2)</f>
-        <v>COT SUKON</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <f>IF([1]Sheet1!F2="A",1,IF([1]Sheet1!F2="B",2,IF([1]Sheet1!F2="AB",3,IF([1]Sheet1!F2="O",4,IF([1]Sheet1!F2="A+",5,IF([1]Sheet1!F2="A-",6,IF([1]Sheet1!F2="B+",7,IF([1]Sheet1!F2="B-",8,IF([1]Sheet1!F2="AB+",9,IF([1]Sheet1!F2="AB-",10,IF([1]Sheet1!F2="O+",11,IF([1]Sheet1!F2="O-",12,13))))))))))))</f>
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
+    <row r="2" spans="1:33">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="str">
-        <f>UPPER([1]Sheet1!B3)</f>
-        <v>HALIMAH</v>
-      </c>
-      <c r="C3">
-        <f>IF([1]Sheet1!C3="L",1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" t="str">
-        <f>UPPER([1]Sheet1!D3)</f>
-        <v>TANGKEH</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <f>IF([1]Sheet1!F3="A",1,IF([1]Sheet1!F3="B",2,IF([1]Sheet1!F3="AB",3,IF([1]Sheet1!F3="O",4,IF([1]Sheet1!F3="A+",5,IF([1]Sheet1!F3="A-",6,IF([1]Sheet1!F3="B+",7,IF([1]Sheet1!F3="B-",8,IF([1]Sheet1!F3="AB+",9,IF([1]Sheet1!F3="AB-",10,IF([1]Sheet1!F3="O+",11,IF([1]Sheet1!F3="O-",12,13))))))))))))</f>
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:33">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N3">
-    <filterColumn colId="7"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>